--- a/data/assess_hard_questions.xlsx
+++ b/data/assess_hard_questions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V26"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,77 +471,47 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>case_1_attempt_0_ratio_cases</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>case_1_attempt_0_runtime_performance</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>case_1_attempt_0_memory_performance</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>case_0_ratio_cases</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>case_0_runtime_performance</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>case_0_rmemory_performance</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>case_1_ratio_cases</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>case_1_runtime_performance</t>
-        </is>
-      </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>case_1_rmemory_performance</t>
+          <t>case_0_memory_performance</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>case_2_ratio_cases</t>
+          <t>case_1_attempt_1_ratio_cases</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>case_2_runtime_performance</t>
+          <t>case_1_attempt_1_runtime_performance</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>case_2_rmemory_performance</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>case_3_ratio_cases</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>case_3_runtime_performance</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>case_3_rmemory_performance</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>case_4_ratio_cases</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>case_4_runtime_performance</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>case_4_rmemory_performance</t>
+          <t>case_1_attempt_1_memory_performance</t>
         </is>
       </c>
     </row>
@@ -586,12 +556,6 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -634,12 +598,6 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -682,12 +640,6 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -730,12 +682,6 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -778,12 +724,6 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -826,12 +766,6 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -874,12 +808,6 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -922,12 +850,6 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -970,12 +892,6 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1018,12 +934,6 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1060,18 +970,18 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>96.70999999999999</v>
+      </c>
+      <c r="M12" t="n">
+        <v>37.99</v>
+      </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1108,18 +1018,18 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>47.37</v>
+      </c>
+      <c r="M13" t="n">
+        <v>37.59</v>
+      </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1162,12 +1072,6 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1210,12 +1114,6 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1258,12 +1156,6 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1306,12 +1198,6 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1354,12 +1240,6 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1402,12 +1282,6 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1450,12 +1324,6 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1498,12 +1366,6 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1546,12 +1408,6 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1594,12 +1450,6 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1642,12 +1492,6 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1690,12 +1534,6 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1738,12 +1576,6 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
